--- a/20_EXCEL/calc just another 30 away xyz data.xlsx
+++ b/20_EXCEL/calc just another 30 away xyz data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TioCash\20_EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D20695F-68E3-49BA-93D1-291E2A91B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C4D75-1B59-40D6-8FFD-83DC937E4FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" xr2:uid="{507DC957-8FA1-41EF-8EAB-EF141DD53708}"/>
   </bookViews>
@@ -817,7 +817,7 @@
     </row>
     <row r="2" spans="1:47" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E2" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>2</v>
@@ -838,14 +838,14 @@
     <row r="3" spans="1:47" x14ac:dyDescent="0.45">
       <c r="AL3" s="14">
         <f>E2</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AU3" s="13"/>
     </row>
     <row r="4" spans="1:47" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="15">
         <f>AL3</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="AL5" s="11">
         <f>D4</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM5" s="1">
         <f>C5</f>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="AO5" s="20">
         <f>AL3</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP5" s="1" t="str">
         <f>B5</f>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="str">
@@ -1146,9 +1146,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M6" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="M6" s="22">
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="N6" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1162,9 +1162,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q6" s="22">
-        <f t="shared" si="3"/>
-        <v>11</v>
+      <c r="Q6" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="R6" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="AL6" s="11">
         <f>AL5</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM6" s="1">
         <f t="shared" ref="AM6:AM34" si="4">C6</f>
@@ -1248,11 +1248,11 @@
       </c>
       <c r="AN6" s="12">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO6" s="1">
         <f>AO5</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP6" s="1" t="str">
         <f t="shared" ref="AP6:AP34" si="5">B6</f>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22" t="str">
@@ -1327,9 +1327,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="T7" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="T7" s="12">
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="U7" s="12" t="str">
         <f t="shared" si="6"/>
@@ -1359,9 +1359,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB7" s="12">
-        <f t="shared" si="3"/>
-        <v>22</v>
+      <c r="AB7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AC7" s="22" t="str">
         <f t="shared" si="3"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="AL7" s="11">
         <f t="shared" ref="AL7:AL34" si="7">AL6</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM7" s="1">
         <f t="shared" si="4"/>
@@ -1401,11 +1401,11 @@
       </c>
       <c r="AN7" s="12">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" ref="AO7:AO34" si="8">AO6</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22" t="str">
@@ -1436,9 +1436,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I8" s="12">
-        <f t="shared" si="6"/>
-        <v>3</v>
+      <c r="I8" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="J8" s="12" t="str">
         <f t="shared" si="6"/>
@@ -1508,9 +1508,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA8" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AA8" s="12">
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="AB8" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AL8" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM8" s="1">
         <f t="shared" si="4"/>
@@ -1554,11 +1554,11 @@
       </c>
       <c r="AN8" s="12">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP8" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="22" t="str">
@@ -1630,9 +1630,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="T9" s="12">
-        <f t="shared" si="3"/>
-        <v>14</v>
+      <c r="T9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="U9" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1686,9 +1686,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH9" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AH9" s="12">
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="AI9" s="23" t="str">
         <f t="shared" si="3"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="AL9" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM9" s="1">
         <f t="shared" si="4"/>
@@ -1704,11 +1704,11 @@
       </c>
       <c r="AN9" s="12">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP9" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="22" t="str">
@@ -1747,9 +1747,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K10" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="K10" s="12">
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="6"/>
@@ -1827,9 +1827,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE10" s="12">
-        <f t="shared" si="3"/>
-        <v>25</v>
+      <c r="AE10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AF10" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="AL10" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM10" s="1">
         <f t="shared" si="4"/>
@@ -1857,11 +1857,11 @@
       </c>
       <c r="AN10" s="12">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP10" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22" t="str">
@@ -1901,9 +1901,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L11" s="12">
-        <f t="shared" si="6"/>
-        <v>6</v>
+      <c r="L11" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M11" s="22" t="str">
         <f t="shared" si="6"/>
@@ -1925,9 +1925,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R11" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="R11" s="12">
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="S11" s="22" t="str">
         <f t="shared" si="3"/>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="AL11" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM11" s="1">
         <f t="shared" si="4"/>
@@ -2007,11 +2007,11 @@
       </c>
       <c r="AN11" s="12">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP11" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22" t="str">
@@ -2098,17 +2098,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W12" s="22">
-        <f t="shared" si="3"/>
-        <v>17</v>
+      <c r="W12" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="X12" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Y12" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="Y12" s="22">
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="Z12" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="AL12" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM12" s="1">
         <f t="shared" si="4"/>
@@ -2160,11 +2160,11 @@
       </c>
       <c r="AN12" s="12">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP12" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22" t="str">
@@ -2284,17 +2284,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF13" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="AF13" s="12">
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="AG13" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH13" s="12">
-        <f t="shared" si="3"/>
-        <v>28</v>
+      <c r="AH13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AI13" s="23" t="str">
         <f t="shared" si="3"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="AL13" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM13" s="1">
         <f t="shared" si="4"/>
@@ -2310,11 +2310,11 @@
       </c>
       <c r="AN13" s="12">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP13" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22" t="str">
@@ -2342,9 +2342,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I14" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="I14" s="12">
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="J14" s="12" t="str">
         <f t="shared" si="6"/>
@@ -2366,9 +2366,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O14" s="12">
-        <f t="shared" si="3"/>
-        <v>9</v>
+      <c r="O14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="P14" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="AL14" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM14" s="1">
         <f t="shared" si="4"/>
@@ -2460,11 +2460,11 @@
       </c>
       <c r="AN14" s="12">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP14" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22" t="str">
@@ -2520,9 +2520,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P15" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="P15" s="12">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Q15" s="22" t="str">
         <f t="shared" si="3"/>
@@ -2560,9 +2560,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Z15" s="12">
-        <f t="shared" si="3"/>
-        <v>20</v>
+      <c r="Z15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="AA15" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="AL15" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM15" s="1">
         <f t="shared" si="4"/>
@@ -2610,11 +2610,11 @@
       </c>
       <c r="AN15" s="12">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP15" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="22">
-        <f t="shared" si="6"/>
-        <v>1</v>
+      <c r="G16" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="H16" s="12" t="str">
         <f t="shared" si="6"/>
@@ -2701,9 +2701,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W16" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="W16" s="22">
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="X16" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="AL16" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM16" s="1">
         <f t="shared" si="4"/>
@@ -2763,11 +2763,11 @@
       </c>
       <c r="AN16" s="12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP16" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22" t="str">
@@ -2831,9 +2831,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R17" s="12">
-        <f t="shared" si="3"/>
-        <v>12</v>
+      <c r="R17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="S17" s="22" t="str">
         <f t="shared" si="3"/>
@@ -2879,9 +2879,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD17" s="12" t="str">
+      <c r="AD17" s="12">
         <f t="shared" ref="AD17:AI17" si="9">IF((MOD(($D17-AD$4),30)=0),AD$4,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AE17" s="12" t="str">
         <f t="shared" si="9"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="AL17" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM17" s="1">
         <f t="shared" si="4"/>
@@ -2913,11 +2913,11 @@
       </c>
       <c r="AN17" s="12">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP17" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2937,12 +2937,12 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="G18" s="22">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H18" s="12" t="str">
         <f t="shared" si="6"/>
@@ -3028,9 +3028,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AC18" s="22">
+      <c r="AC18" s="22" t="str">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v/>
       </c>
       <c r="AD18" s="12" t="str">
         <f t="shared" si="10"/>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="AL18" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM18" s="1">
         <f t="shared" si="4"/>
@@ -3066,11 +3066,11 @@
       </c>
       <c r="AN18" s="12">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP18" s="1" t="str">
         <f t="shared" si="5"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22" t="str">
@@ -3102,9 +3102,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J19" s="12">
-        <f t="shared" si="6"/>
-        <v>4</v>
+      <c r="J19" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="K19" s="12" t="str">
         <f t="shared" si="6"/>
@@ -3118,9 +3118,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N19" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="N19" s="12">
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="O19" s="12" t="str">
         <f t="shared" si="6"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="AL19" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM19" s="1">
         <f t="shared" si="4"/>
@@ -3216,11 +3216,11 @@
       </c>
       <c r="AN19" s="12">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP19" s="1" t="str">
         <f t="shared" si="5"/>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22" t="str">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="AL20" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM20" s="1">
         <f t="shared" si="4"/>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="AO20" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP20" s="1" t="str">
         <f t="shared" si="5"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22" t="str">
@@ -3474,9 +3474,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB21" s="12" t="str">
+      <c r="AB21" s="12">
         <f t="shared" si="10"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC21" s="22" t="str">
         <f t="shared" si="10"/>
@@ -3490,9 +3490,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AF21" s="12">
+      <c r="AF21" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v/>
       </c>
       <c r="AG21" s="12" t="str">
         <f t="shared" si="10"/>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="AL21" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM21" s="1">
         <f t="shared" si="4"/>
@@ -3516,11 +3516,11 @@
       </c>
       <c r="AN21" s="12">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP21" s="1" t="str">
         <f t="shared" si="5"/>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22" t="str">
@@ -3567,9 +3567,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M22" s="22">
-        <f t="shared" si="6"/>
-        <v>7</v>
+      <c r="M22" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="N22" s="12" t="str">
         <f t="shared" si="6"/>
@@ -3655,13 +3655,13 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AI22" s="23" t="str">
+      <c r="AI22" s="23">
         <f t="shared" si="10"/>
-        <v/>
+        <v>29</v>
       </c>
       <c r="AL22" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM22" s="1">
         <f t="shared" si="4"/>
@@ -3669,11 +3669,11 @@
       </c>
       <c r="AN22" s="12">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP22" s="1" t="str">
         <f t="shared" si="5"/>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22" t="str">
@@ -3713,9 +3713,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L23" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="L23" s="12">
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="M23" s="22" t="str">
         <f t="shared" si="6"/>
@@ -3761,9 +3761,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X23" s="12">
+      <c r="X23" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="Y23" s="22" t="str">
         <f t="shared" si="10"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="AL23" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM23" s="1">
         <f t="shared" si="4"/>
@@ -3819,11 +3819,11 @@
       </c>
       <c r="AN23" s="12">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AO23" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP23" s="1" t="str">
         <f t="shared" si="5"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22" t="str">
@@ -3894,9 +3894,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S24" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="S24" s="22">
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="T24" s="12" t="str">
         <f t="shared" si="6"/>
@@ -3958,13 +3958,13 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AI24" s="23">
+      <c r="AI24" s="23" t="str">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v/>
       </c>
       <c r="AL24" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM24" s="1">
         <f t="shared" si="4"/>
@@ -3972,11 +3972,11 @@
       </c>
       <c r="AN24" s="12">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AO24" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP24" s="1" t="str">
         <f t="shared" si="5"/>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22" t="str">
@@ -4032,9 +4032,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P25" s="12">
-        <f t="shared" si="6"/>
-        <v>10</v>
+      <c r="P25" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="Q25" s="22" t="str">
         <f t="shared" si="6"/>
@@ -4072,9 +4072,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Z25" s="12" t="str">
+      <c r="Z25" s="12">
         <f t="shared" si="10"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AA25" s="12" t="str">
         <f t="shared" si="10"/>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="AL25" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM25" s="1">
         <f t="shared" si="4"/>
@@ -4122,11 +4122,11 @@
       </c>
       <c r="AN25" s="12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO25" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP25" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22" t="str">
@@ -4226,9 +4226,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AA26" s="12">
+      <c r="AA26" s="12" t="str">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v/>
       </c>
       <c r="AB26" s="12" t="str">
         <f t="shared" si="10"/>
@@ -4250,9 +4250,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AG26" s="12" t="str">
+      <c r="AG26" s="12">
         <f t="shared" si="10"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AH26" s="12" t="str">
         <f t="shared" si="10"/>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="AL26" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM26" s="1">
         <f t="shared" si="4"/>
@@ -4272,11 +4272,11 @@
       </c>
       <c r="AN26" s="12">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AO26" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP26" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4293,24 +4293,24 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H27" s="12">
-        <f t="shared" si="6"/>
-        <v>2</v>
+      <c r="H27" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J27" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+      <c r="J27" s="12">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="K27" s="12" t="str">
         <f t="shared" si="6"/>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="AL27" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM27" s="1">
         <f t="shared" si="4"/>
@@ -4422,11 +4422,11 @@
       </c>
       <c r="AN27" s="12">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO27" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP27" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22" t="str">
@@ -4489,17 +4489,17 @@
         <f t="shared" ref="P28:AI34" si="11">IF((MOD(($D28-P$4),30)=0),P$4,"")</f>
         <v/>
       </c>
-      <c r="Q28" s="22" t="str">
+      <c r="Q28" s="22">
         <f t="shared" si="11"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="R28" s="12" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S28" s="22">
+      <c r="S28" s="22" t="str">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="T28" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="AL28" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM28" s="1">
         <f t="shared" si="4"/>
@@ -4575,11 +4575,11 @@
       </c>
       <c r="AN28" s="12">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO28" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP28" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22" t="str">
@@ -4667,9 +4667,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="X29" s="12" t="str">
+      <c r="X29" s="12">
         <f t="shared" si="11"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="Y29" s="22" t="str">
         <f t="shared" si="11"/>
@@ -4691,9 +4691,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AD29" s="12">
+      <c r="AD29" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v/>
       </c>
       <c r="AE29" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="AL29" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM29" s="1">
         <f t="shared" si="4"/>
@@ -4725,11 +4725,11 @@
       </c>
       <c r="AN29" s="12">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AO29" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP29" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22" t="str">
@@ -4765,9 +4765,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="L30" s="12" t="str">
         <f t="shared" si="12"/>
@@ -4845,9 +4845,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AE30" s="12" t="str">
+      <c r="AE30" s="12">
         <f t="shared" si="11"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="AF30" s="12" t="str">
         <f t="shared" si="11"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="AL30" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM30" s="1">
         <f t="shared" si="4"/>
@@ -4875,11 +4875,11 @@
       </c>
       <c r="AN30" s="12">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AO30" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP30" s="1" t="str">
         <f t="shared" si="5"/>
@@ -4896,16 +4896,16 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>182</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H31" s="12" t="str">
+      <c r="H31" s="12">
         <f t="shared" si="12"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I31" s="12" t="str">
         <f t="shared" si="12"/>
@@ -4959,9 +4959,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="V31" s="12">
+      <c r="V31" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v/>
       </c>
       <c r="W31" s="22" t="str">
         <f t="shared" si="11"/>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="AL31" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM31" s="1">
         <f t="shared" si="4"/>
@@ -5025,11 +5025,11 @@
       </c>
       <c r="AN31" s="12">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AO31" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP31" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>189</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22" t="str">
@@ -5081,9 +5081,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="O32" s="12" t="str">
+      <c r="O32" s="12">
         <f t="shared" si="12"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="P32" s="12" t="str">
         <f t="shared" si="12"/>
@@ -5153,9 +5153,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AG32" s="12">
+      <c r="AG32" s="12" t="str">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v/>
       </c>
       <c r="AH32" s="12" t="str">
         <f t="shared" si="11"/>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="AL32" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM32" s="1">
         <f t="shared" si="4"/>
@@ -5175,11 +5175,11 @@
       </c>
       <c r="AN32" s="12">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="AO32" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP32" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22" t="str">
@@ -5227,9 +5227,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="O33" s="12" t="str">
         <f t="shared" si="12"/>
@@ -5259,9 +5259,9 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="V33" s="12" t="str">
+      <c r="V33" s="12">
         <f t="shared" si="12"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="W33" s="22" t="str">
         <f t="shared" si="11"/>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="AL33" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM33" s="1">
         <f t="shared" si="4"/>
@@ -5325,11 +5325,11 @@
       </c>
       <c r="AN33" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AO33" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP33" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="27" t="str">
@@ -5424,9 +5424,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Y34" s="27">
+      <c r="Y34" s="27" t="str">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v/>
       </c>
       <c r="Z34" s="28" t="str">
         <f t="shared" si="11"/>
@@ -5440,9 +5440,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC34" s="27" t="str">
+      <c r="AC34" s="27">
         <f t="shared" si="11"/>
-        <v/>
+        <v>23</v>
       </c>
       <c r="AD34" s="28" t="str">
         <f t="shared" si="11"/>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="AL34" s="11">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM34" s="1">
         <f t="shared" si="4"/>
@@ -5478,11 +5478,11 @@
       </c>
       <c r="AN34" s="12">
         <f>SUM(F34:AI34)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO34" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP34" s="1" t="str">
         <f t="shared" si="5"/>
@@ -5493,7 +5493,7 @@
     <row r="35" spans="1:47" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D35" s="14">
         <f>D4</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" ref="D36:D65" si="13">C36*$D$4</f>
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="F36" s="32">
         <f>IF((MOD(($D36-F$4),30)=0),F$4,"")</f>
@@ -5648,7 +5648,7 @@
       <c r="AI36" s="19"/>
       <c r="AL36" s="11">
         <f>D35</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM36" s="1">
         <f t="shared" ref="AM36:AM65" si="14">C36</f>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="AO36" s="20">
         <f>AO34</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP36" s="1" t="str">
         <f t="shared" ref="AP36:AP65" si="16">B36</f>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="13"/>
-        <v>341</v>
+        <v>217</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="22" t="str">
@@ -5707,9 +5707,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="M37" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="M37" s="22">
+        <f t="shared" si="17"/>
+        <v>7</v>
       </c>
       <c r="N37" s="12" t="str">
         <f t="shared" si="17"/>
@@ -5723,9 +5723,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="Q37" s="22">
-        <f t="shared" si="17"/>
-        <v>11</v>
+      <c r="Q37" s="22" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="R37" s="12" t="str">
         <f t="shared" si="17"/>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="AL37" s="11">
         <f>AL36</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM37" s="1">
         <f t="shared" si="14"/>
@@ -5809,11 +5809,11 @@
       </c>
       <c r="AN37" s="12">
         <f t="shared" si="15"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AO37" s="1">
         <f>AO36</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP37" s="1" t="str">
         <f t="shared" si="16"/>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="13"/>
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22" t="str">
@@ -5885,9 +5885,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="T38" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="T38" s="12">
+        <f t="shared" si="18"/>
+        <v>14</v>
       </c>
       <c r="U38" s="12" t="str">
         <f t="shared" si="18"/>
@@ -5917,9 +5917,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AB38" s="12">
-        <f t="shared" si="17"/>
-        <v>22</v>
+      <c r="AB38" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="AC38" s="22" t="str">
         <f t="shared" si="17"/>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="AL38" s="11">
         <f t="shared" ref="AL38:AL65" si="19">AL37</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM38" s="1">
         <f t="shared" si="14"/>
@@ -5959,11 +5959,11 @@
       </c>
       <c r="AN38" s="12">
         <f t="shared" si="15"/>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AO38" s="1">
         <f t="shared" ref="AO38:AO65" si="20">AO37</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP38" s="1" t="str">
         <f t="shared" si="16"/>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="13"/>
-        <v>363</v>
+        <v>231</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22" t="str">
@@ -5991,9 +5991,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I39" s="12">
-        <f t="shared" si="18"/>
-        <v>3</v>
+      <c r="I39" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="J39" s="12" t="str">
         <f t="shared" si="18"/>
@@ -6063,9 +6063,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AA39" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="AA39" s="12">
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
       <c r="AB39" s="12" t="str">
         <f t="shared" si="17"/>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="AL39" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM39" s="1">
         <f t="shared" si="14"/>
@@ -6109,11 +6109,11 @@
       </c>
       <c r="AN39" s="12">
         <f t="shared" si="15"/>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="AO39" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP39" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="13"/>
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="22" t="str">
@@ -6185,9 +6185,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="T40" s="12">
-        <f t="shared" si="17"/>
-        <v>14</v>
+      <c r="T40" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="U40" s="12" t="str">
         <f t="shared" si="17"/>
@@ -6241,9 +6241,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AH40" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="AH40" s="12">
+        <f t="shared" si="17"/>
+        <v>28</v>
       </c>
       <c r="AI40" s="23" t="str">
         <f t="shared" si="17"/>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="AL40" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM40" s="1">
         <f t="shared" si="14"/>
@@ -6259,11 +6259,11 @@
       </c>
       <c r="AN40" s="12">
         <f t="shared" si="15"/>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="AO40" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP40" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="13"/>
-        <v>385</v>
+        <v>245</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="22" t="str">
@@ -6299,9 +6299,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K41" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="K41" s="12">
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="L41" s="12" t="str">
         <f t="shared" si="18"/>
@@ -6379,9 +6379,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AE41" s="12">
-        <f t="shared" si="17"/>
-        <v>25</v>
+      <c r="AE41" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="AF41" s="12" t="str">
         <f t="shared" si="17"/>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="AL41" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM41" s="1">
         <f t="shared" si="14"/>
@@ -6409,11 +6409,11 @@
       </c>
       <c r="AN41" s="12">
         <f t="shared" si="15"/>
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP41" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="13"/>
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="22" t="str">
@@ -6453,9 +6453,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L42" s="12">
-        <f t="shared" si="18"/>
-        <v>6</v>
+      <c r="L42" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="M42" s="22" t="str">
         <f t="shared" si="18"/>
@@ -6477,9 +6477,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="R42" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="R42" s="12">
+        <f t="shared" si="17"/>
+        <v>12</v>
       </c>
       <c r="S42" s="22" t="str">
         <f t="shared" si="17"/>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="AL42" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM42" s="1">
         <f t="shared" si="14"/>
@@ -6559,11 +6559,11 @@
       </c>
       <c r="AN42" s="12">
         <f t="shared" si="15"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AO42" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP42" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="13"/>
-        <v>407</v>
+        <v>259</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="22" t="str">
@@ -6650,17 +6650,17 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="W43" s="22">
-        <f t="shared" si="17"/>
-        <v>17</v>
+      <c r="W43" s="22" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="X43" s="12" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="Y43" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="Y43" s="22">
+        <f t="shared" si="17"/>
+        <v>19</v>
       </c>
       <c r="Z43" s="12" t="str">
         <f t="shared" si="17"/>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="AL43" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM43" s="1">
         <f t="shared" si="14"/>
@@ -6712,11 +6712,11 @@
       </c>
       <c r="AN43" s="12">
         <f t="shared" si="15"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AO43" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP43" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="13"/>
-        <v>418</v>
+        <v>266</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="22" t="str">
@@ -6836,17 +6836,17 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AF44" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="AF44" s="12">
+        <f t="shared" si="17"/>
+        <v>26</v>
       </c>
       <c r="AG44" s="12" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AH44" s="12">
-        <f t="shared" si="17"/>
-        <v>28</v>
+      <c r="AH44" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="AI44" s="23" t="str">
         <f t="shared" si="17"/>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="AL44" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM44" s="1">
         <f t="shared" si="14"/>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="AN44" s="12">
         <f t="shared" si="15"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AO44" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP44" s="1" t="str">
         <f t="shared" si="16"/>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="13"/>
-        <v>429</v>
+        <v>273</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="22" t="str">
@@ -6894,9 +6894,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I45" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="I45" s="12">
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="J45" s="12" t="str">
         <f t="shared" si="18"/>
@@ -6918,9 +6918,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="O45" s="12">
-        <f t="shared" si="17"/>
-        <v>9</v>
+      <c r="O45" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="P45" s="12" t="str">
         <f t="shared" si="17"/>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="AL45" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM45" s="1">
         <f t="shared" si="14"/>
@@ -7012,11 +7012,11 @@
       </c>
       <c r="AN45" s="12">
         <f t="shared" si="15"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AO45" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP45" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="13"/>
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="22" t="str">
@@ -7072,9 +7072,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P46" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="P46" s="12">
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
       <c r="Q46" s="22" t="str">
         <f t="shared" si="17"/>
@@ -7112,9 +7112,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="Z46" s="12">
-        <f t="shared" si="17"/>
-        <v>20</v>
+      <c r="Z46" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="AA46" s="12" t="str">
         <f t="shared" si="17"/>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="AL46" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM46" s="1">
         <f t="shared" si="14"/>
@@ -7162,11 +7162,11 @@
       </c>
       <c r="AN46" s="12">
         <f t="shared" si="15"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AO46" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP46" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7186,12 +7186,12 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="13"/>
-        <v>451</v>
+        <v>287</v>
       </c>
       <c r="F47" s="21"/>
-      <c r="G47" s="22">
-        <f t="shared" si="18"/>
-        <v>1</v>
+      <c r="G47" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="H47" s="12" t="str">
         <f t="shared" si="18"/>
@@ -7253,9 +7253,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="W47" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v/>
+      <c r="W47" s="22">
+        <f t="shared" si="17"/>
+        <v>17</v>
       </c>
       <c r="X47" s="12" t="str">
         <f t="shared" si="17"/>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="AL47" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM47" s="1">
         <f t="shared" si="14"/>
@@ -7315,11 +7315,11 @@
       </c>
       <c r="AN47" s="12">
         <f t="shared" si="15"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AO47" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP47" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="13"/>
-        <v>462</v>
+        <v>294</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="22" t="str">
@@ -7383,9 +7383,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="R48" s="12">
-        <f t="shared" si="17"/>
-        <v>12</v>
+      <c r="R48" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
       <c r="S48" s="22" t="str">
         <f t="shared" si="17"/>
@@ -7431,9 +7431,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AD48" s="12" t="str">
+      <c r="AD48" s="12">
         <f t="shared" ref="AD48:AI48" si="21">IF((MOD(($D48-AD$4),30)=0),AD$4,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AE48" s="12" t="str">
         <f t="shared" si="21"/>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="AL48" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM48" s="1">
         <f t="shared" si="14"/>
@@ -7465,11 +7465,11 @@
       </c>
       <c r="AN48" s="12">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="AO48" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP48" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7489,12 +7489,12 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="13"/>
-        <v>473</v>
+        <v>301</v>
       </c>
       <c r="F49" s="21"/>
-      <c r="G49" s="22" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="G49" s="22">
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="H49" s="12" t="str">
         <f t="shared" si="18"/>
@@ -7580,9 +7580,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AC49" s="22">
+      <c r="AC49" s="22" t="str">
         <f t="shared" si="22"/>
-        <v>23</v>
+        <v/>
       </c>
       <c r="AD49" s="12" t="str">
         <f t="shared" si="22"/>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="AL49" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM49" s="1">
         <f t="shared" si="14"/>
@@ -7618,11 +7618,11 @@
       </c>
       <c r="AN49" s="12">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP49" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="13"/>
-        <v>484</v>
+        <v>308</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="22" t="str">
@@ -7654,9 +7654,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J50" s="12">
-        <f t="shared" si="18"/>
-        <v>4</v>
+      <c r="J50" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="K50" s="12" t="str">
         <f t="shared" si="18"/>
@@ -7670,9 +7670,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="N50" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="N50" s="12">
+        <f t="shared" si="18"/>
+        <v>8</v>
       </c>
       <c r="O50" s="12" t="str">
         <f t="shared" si="18"/>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="AL50" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM50" s="1">
         <f t="shared" si="14"/>
@@ -7768,11 +7768,11 @@
       </c>
       <c r="AN50" s="12">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO50" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP50" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="13"/>
-        <v>495</v>
+        <v>315</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="22" t="str">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="AL51" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM51" s="1">
         <f t="shared" si="14"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="AO51" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP51" s="1" t="str">
         <f t="shared" si="16"/>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="13"/>
-        <v>506</v>
+        <v>322</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="22" t="str">
@@ -8026,9 +8026,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AB52" s="12" t="str">
+      <c r="AB52" s="12">
         <f t="shared" si="22"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC52" s="22" t="str">
         <f t="shared" si="22"/>
@@ -8042,9 +8042,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AF52" s="12">
+      <c r="AF52" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v/>
       </c>
       <c r="AG52" s="12" t="str">
         <f t="shared" si="22"/>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="AL52" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM52" s="1">
         <f t="shared" si="14"/>
@@ -8068,11 +8068,11 @@
       </c>
       <c r="AN52" s="12">
         <f t="shared" si="15"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AO52" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP52" s="1" t="str">
         <f t="shared" si="16"/>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="13"/>
-        <v>517</v>
+        <v>329</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="22" t="str">
@@ -8119,9 +8119,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="M53" s="22">
-        <f t="shared" si="18"/>
-        <v>7</v>
+      <c r="M53" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="N53" s="12" t="str">
         <f t="shared" si="18"/>
@@ -8207,13 +8207,13 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AI53" s="23" t="str">
+      <c r="AI53" s="23">
         <f t="shared" si="22"/>
-        <v/>
+        <v>29</v>
       </c>
       <c r="AL53" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM53" s="1">
         <f t="shared" si="14"/>
@@ -8221,11 +8221,11 @@
       </c>
       <c r="AN53" s="12">
         <f t="shared" si="15"/>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AO53" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP53" s="1" t="str">
         <f t="shared" si="16"/>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="13"/>
-        <v>528</v>
+        <v>336</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="22" t="str">
@@ -8265,9 +8265,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L54" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="L54" s="12">
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="M54" s="22" t="str">
         <f t="shared" si="18"/>
@@ -8313,9 +8313,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="X54" s="12">
+      <c r="X54" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="Y54" s="22" t="str">
         <f t="shared" si="22"/>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="AL54" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM54" s="1">
         <f t="shared" si="14"/>
@@ -8371,11 +8371,11 @@
       </c>
       <c r="AN54" s="12">
         <f t="shared" si="15"/>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AO54" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP54" s="1" t="str">
         <f t="shared" si="16"/>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="13"/>
-        <v>539</v>
+        <v>343</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="22" t="str">
@@ -8443,9 +8443,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="S55" s="22" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="S55" s="22">
+        <f t="shared" si="18"/>
+        <v>13</v>
       </c>
       <c r="T55" s="12" t="str">
         <f t="shared" si="18"/>
@@ -8507,13 +8507,13 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AI55" s="23">
+      <c r="AI55" s="23" t="str">
         <f t="shared" si="22"/>
-        <v>29</v>
+        <v/>
       </c>
       <c r="AL55" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM55" s="1">
         <f t="shared" si="14"/>
@@ -8521,11 +8521,11 @@
       </c>
       <c r="AN55" s="12">
         <f t="shared" si="15"/>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="AO55" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP55" s="1" t="str">
         <f t="shared" si="16"/>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="13"/>
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="22" t="str">
@@ -8581,9 +8581,9 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="P56" s="12">
-        <f t="shared" si="18"/>
-        <v>10</v>
+      <c r="P56" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="Q56" s="22" t="str">
         <f t="shared" si="18"/>
@@ -8621,9 +8621,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="Z56" s="12" t="str">
+      <c r="Z56" s="12">
         <f t="shared" si="22"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AA56" s="12" t="str">
         <f t="shared" si="22"/>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="AL56" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM56" s="1">
         <f t="shared" si="14"/>
@@ -8671,11 +8671,11 @@
       </c>
       <c r="AN56" s="12">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AO56" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP56" s="1" t="str">
         <f t="shared" si="16"/>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" si="13"/>
-        <v>561</v>
+        <v>357</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="22" t="str">
@@ -8775,9 +8775,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AA57" s="12">
+      <c r="AA57" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v/>
       </c>
       <c r="AB57" s="12" t="str">
         <f t="shared" si="22"/>
@@ -8799,9 +8799,9 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AG57" s="12" t="str">
+      <c r="AG57" s="12">
         <f t="shared" si="22"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AH57" s="12" t="str">
         <f t="shared" si="22"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="AL57" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM57" s="1">
         <f t="shared" si="14"/>
@@ -8821,11 +8821,11 @@
       </c>
       <c r="AN57" s="12">
         <f t="shared" si="15"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="AO57" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP57" s="1" t="str">
         <f t="shared" si="16"/>
@@ -8842,24 +8842,24 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="13"/>
-        <v>572</v>
+        <v>364</v>
       </c>
       <c r="F58" s="21"/>
       <c r="G58" s="22" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H58" s="12">
-        <f t="shared" si="18"/>
-        <v>2</v>
+      <c r="H58" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
       </c>
       <c r="I58" s="12" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J58" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="J58" s="12">
+        <f t="shared" si="18"/>
+        <v>4</v>
       </c>
       <c r="K58" s="12" t="str">
         <f t="shared" si="18"/>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="AL58" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM58" s="1">
         <f t="shared" si="14"/>
@@ -8971,11 +8971,11 @@
       </c>
       <c r="AN58" s="12">
         <f t="shared" si="15"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO58" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP58" s="1" t="str">
         <f t="shared" si="16"/>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="13"/>
-        <v>583</v>
+        <v>371</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="22" t="str">
@@ -9038,17 +9038,17 @@
         <f t="shared" ref="P59:AI65" si="23">IF((MOD(($D59-P$4),30)=0),P$4,"")</f>
         <v/>
       </c>
-      <c r="Q59" s="22" t="str">
+      <c r="Q59" s="22">
         <f t="shared" si="23"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="R59" s="12" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="S59" s="22">
+      <c r="S59" s="22" t="str">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="T59" s="12" t="str">
         <f t="shared" si="23"/>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="AL59" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM59" s="1">
         <f t="shared" si="14"/>
@@ -9124,11 +9124,11 @@
       </c>
       <c r="AN59" s="12">
         <f t="shared" si="15"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AO59" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP59" s="1" t="str">
         <f t="shared" si="16"/>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="13"/>
-        <v>594</v>
+        <v>378</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="22" t="str">
@@ -9216,9 +9216,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="X60" s="12" t="str">
+      <c r="X60" s="12">
         <f t="shared" si="23"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="Y60" s="22" t="str">
         <f t="shared" si="23"/>
@@ -9240,9 +9240,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AD60" s="12">
+      <c r="AD60" s="12" t="str">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v/>
       </c>
       <c r="AE60" s="12" t="str">
         <f t="shared" si="23"/>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AL60" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM60" s="1">
         <f t="shared" si="14"/>
@@ -9274,11 +9274,11 @@
       </c>
       <c r="AN60" s="12">
         <f t="shared" si="15"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AO60" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP60" s="1" t="str">
         <f t="shared" si="16"/>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="13"/>
-        <v>605</v>
+        <v>385</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="22" t="str">
@@ -9314,9 +9314,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="12" t="str">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="L61" s="12" t="str">
         <f t="shared" si="24"/>
@@ -9394,9 +9394,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AE61" s="12" t="str">
+      <c r="AE61" s="12">
         <f t="shared" si="23"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="AF61" s="12" t="str">
         <f t="shared" si="23"/>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="AL61" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM61" s="1">
         <f t="shared" si="14"/>
@@ -9424,11 +9424,11 @@
       </c>
       <c r="AN61" s="12">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AO61" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP61" s="1" t="str">
         <f t="shared" si="16"/>
@@ -9445,16 +9445,16 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="13"/>
-        <v>616</v>
+        <v>392</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="22" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="H62" s="12" t="str">
+      <c r="H62" s="12">
         <f t="shared" si="24"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I62" s="12" t="str">
         <f t="shared" si="24"/>
@@ -9508,9 +9508,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="V62" s="12">
+      <c r="V62" s="12" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v/>
       </c>
       <c r="W62" s="22" t="str">
         <f t="shared" si="23"/>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="AL62" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM62" s="1">
         <f t="shared" si="14"/>
@@ -9574,11 +9574,11 @@
       </c>
       <c r="AN62" s="12">
         <f t="shared" si="15"/>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AO62" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP62" s="1" t="str">
         <f t="shared" si="16"/>
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="13"/>
-        <v>627</v>
+        <v>399</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="22" t="str">
@@ -9630,9 +9630,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="O63" s="12" t="str">
+      <c r="O63" s="12">
         <f t="shared" si="24"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="P63" s="12" t="str">
         <f t="shared" si="24"/>
@@ -9702,9 +9702,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AG63" s="12">
+      <c r="AG63" s="12" t="str">
         <f t="shared" si="23"/>
-        <v>27</v>
+        <v/>
       </c>
       <c r="AH63" s="12" t="str">
         <f t="shared" si="23"/>
@@ -9716,7 +9716,7 @@
       </c>
       <c r="AL63" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM63" s="1">
         <f t="shared" si="14"/>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="AN63" s="12">
         <f t="shared" si="15"/>
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AO63" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP63" s="1" t="str">
         <f t="shared" si="16"/>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="13"/>
-        <v>638</v>
+        <v>406</v>
       </c>
       <c r="F64" s="21"/>
       <c r="G64" s="22" t="str">
@@ -9776,9 +9776,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N64" s="12">
+      <c r="N64" s="12" t="str">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="O64" s="12" t="str">
         <f t="shared" si="24"/>
@@ -9808,9 +9808,9 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="V64" s="12" t="str">
+      <c r="V64" s="12">
         <f t="shared" si="24"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="W64" s="22" t="str">
         <f t="shared" si="23"/>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="AL64" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM64" s="1">
         <f t="shared" si="14"/>
@@ -9874,11 +9874,11 @@
       </c>
       <c r="AN64" s="12">
         <f t="shared" si="15"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AO64" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP64" s="1" t="str">
         <f t="shared" si="16"/>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="13"/>
-        <v>649</v>
+        <v>413</v>
       </c>
       <c r="F65" s="26"/>
       <c r="G65" s="27" t="str">
@@ -9973,9 +9973,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="Y65" s="27">
+      <c r="Y65" s="27" t="str">
         <f t="shared" si="23"/>
-        <v>19</v>
+        <v/>
       </c>
       <c r="Z65" s="28" t="str">
         <f t="shared" si="23"/>
@@ -9989,9 +9989,9 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AC65" s="27" t="str">
+      <c r="AC65" s="27">
         <f t="shared" si="23"/>
-        <v/>
+        <v>23</v>
       </c>
       <c r="AD65" s="28" t="str">
         <f t="shared" si="23"/>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="AL65" s="11">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM65" s="1">
         <f t="shared" si="14"/>
@@ -10027,11 +10027,11 @@
       </c>
       <c r="AN65" s="12">
         <f>30+SUM(F65:AI65)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AO65" s="1">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP65" s="1" t="str">
         <f t="shared" si="16"/>
@@ -10042,7 +10042,7 @@
     <row r="66" spans="1:47" ht="19.2" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D66" s="14">
         <f>D35</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" ref="D67:D96" si="25">C67*$D$4</f>
-        <v>660</v>
+        <v>420</v>
       </c>
       <c r="F67" s="32">
         <f>IF((MOD(($D67-F$4),30)=0),F$4,"")</f>
@@ -10197,7 +10197,7 @@
       <c r="AI67" s="19"/>
       <c r="AL67" s="11">
         <f>D66</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM67" s="1">
         <f t="shared" ref="AM67:AM96" si="26">C67</f>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="AO67" s="20">
         <f>AO65</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP67" s="1" t="str">
         <f t="shared" ref="AP67:AP96" si="28">B67</f>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" si="25"/>
-        <v>671</v>
+        <v>427</v>
       </c>
       <c r="F68" s="21"/>
       <c r="G68" s="22" t="str">
@@ -10256,9 +10256,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="M68" s="22" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+      <c r="M68" s="22">
+        <f t="shared" si="29"/>
+        <v>7</v>
       </c>
       <c r="N68" s="12" t="str">
         <f t="shared" si="29"/>
@@ -10272,9 +10272,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="Q68" s="22">
-        <f t="shared" si="29"/>
-        <v>11</v>
+      <c r="Q68" s="22" t="str">
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="R68" s="12" t="str">
         <f t="shared" si="29"/>
@@ -10350,7 +10350,7 @@
       </c>
       <c r="AL68" s="11">
         <f>AL67</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM68" s="1">
         <f t="shared" si="26"/>
@@ -10358,11 +10358,11 @@
       </c>
       <c r="AN68" s="12">
         <f t="shared" si="27"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AO68" s="1">
         <f>AO67</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP68" s="1" t="str">
         <f t="shared" si="28"/>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="25"/>
-        <v>682</v>
+        <v>434</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="22" t="str">
@@ -10434,9 +10434,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="T69" s="12" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+      <c r="T69" s="12">
+        <f t="shared" si="30"/>
+        <v>14</v>
       </c>
       <c r="U69" s="12" t="str">
         <f t="shared" si="30"/>
@@ -10466,9 +10466,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="AB69" s="12">
-        <f t="shared" si="29"/>
-        <v>22</v>
+      <c r="AB69" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="AC69" s="22" t="str">
         <f t="shared" si="29"/>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="AL69" s="11">
         <f t="shared" ref="AL69:AL96" si="31">AL68</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM69" s="1">
         <f t="shared" si="26"/>
@@ -10508,11 +10508,11 @@
       </c>
       <c r="AN69" s="12">
         <f t="shared" si="27"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AO69" s="1">
         <f t="shared" ref="AO69:AO96" si="32">AO68</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP69" s="1" t="str">
         <f t="shared" si="28"/>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="25"/>
-        <v>693</v>
+        <v>441</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="22" t="str">
@@ -10540,9 +10540,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="I70" s="12">
-        <f t="shared" si="30"/>
-        <v>3</v>
+      <c r="I70" s="12" t="str">
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="J70" s="12" t="str">
         <f t="shared" si="30"/>
@@ -10612,9 +10612,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="AA70" s="12" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+      <c r="AA70" s="12">
+        <f t="shared" si="29"/>
+        <v>21</v>
       </c>
       <c r="AB70" s="12" t="str">
         <f t="shared" si="29"/>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="AL70" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM70" s="1">
         <f t="shared" si="26"/>
@@ -10658,11 +10658,11 @@
       </c>
       <c r="AN70" s="12">
         <f t="shared" si="27"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AO70" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP70" s="1" t="str">
         <f t="shared" si="28"/>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="25"/>
-        <v>704</v>
+        <v>448</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="22" t="str">
@@ -10734,9 +10734,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="T71" s="12">
-        <f t="shared" si="29"/>
-        <v>14</v>
+      <c r="T71" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="U71" s="12" t="str">
         <f t="shared" si="29"/>
@@ -10790,9 +10790,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="AH71" s="12" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+      <c r="AH71" s="12">
+        <f t="shared" si="29"/>
+        <v>28</v>
       </c>
       <c r="AI71" s="23" t="str">
         <f t="shared" si="29"/>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="AL71" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM71" s="1">
         <f t="shared" si="26"/>
@@ -10808,11 +10808,11 @@
       </c>
       <c r="AN71" s="12">
         <f t="shared" si="27"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AO71" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP71" s="1" t="str">
         <f t="shared" si="28"/>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="25"/>
-        <v>715</v>
+        <v>455</v>
       </c>
       <c r="F72" s="21"/>
       <c r="G72" s="22" t="str">
@@ -10848,9 +10848,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K72" s="12" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+      <c r="K72" s="12">
+        <f t="shared" si="30"/>
+        <v>5</v>
       </c>
       <c r="L72" s="12" t="str">
         <f t="shared" si="30"/>
@@ -10928,9 +10928,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="AE72" s="12">
-        <f t="shared" si="29"/>
-        <v>25</v>
+      <c r="AE72" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="AF72" s="12" t="str">
         <f t="shared" si="29"/>
@@ -10950,7 +10950,7 @@
       </c>
       <c r="AL72" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM72" s="1">
         <f t="shared" si="26"/>
@@ -10958,11 +10958,11 @@
       </c>
       <c r="AN72" s="12">
         <f t="shared" si="27"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AO72" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP72" s="1" t="str">
         <f t="shared" si="28"/>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" si="25"/>
-        <v>726</v>
+        <v>462</v>
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="22" t="str">
@@ -11002,9 +11002,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="L73" s="12">
-        <f t="shared" si="30"/>
-        <v>6</v>
+      <c r="L73" s="12" t="str">
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="M73" s="22" t="str">
         <f t="shared" si="30"/>
@@ -11026,9 +11026,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="R73" s="12" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+      <c r="R73" s="12">
+        <f t="shared" si="29"/>
+        <v>12</v>
       </c>
       <c r="S73" s="22" t="str">
         <f t="shared" si="29"/>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="AL73" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM73" s="1">
         <f t="shared" si="26"/>
@@ -11108,11 +11108,11 @@
       </c>
       <c r="AN73" s="12">
         <f t="shared" si="27"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AO73" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP73" s="1" t="str">
         <f t="shared" si="28"/>
@@ -11132,7 +11132,7 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" si="25"/>
-        <v>737</v>
+        <v>469</v>
       </c>
       <c r="F74" s="21"/>
       <c r="G74" s="22" t="str">
@@ -11199,17 +11199,17 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="W74" s="22">
-        <f t="shared" si="29"/>
-        <v>17</v>
+      <c r="W74" s="22" t="str">
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="X74" s="12" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="Y74" s="22" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+      <c r="Y74" s="22">
+        <f t="shared" si="29"/>
+        <v>19</v>
       </c>
       <c r="Z74" s="12" t="str">
         <f t="shared" si="29"/>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="AL74" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM74" s="1">
         <f t="shared" si="26"/>
@@ -11261,11 +11261,11 @@
       </c>
       <c r="AN74" s="12">
         <f t="shared" si="27"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO74" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP74" s="1" t="str">
         <f t="shared" si="28"/>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" si="25"/>
-        <v>748</v>
+        <v>476</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="22" t="str">
@@ -11385,17 +11385,17 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="AF75" s="12" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+      <c r="AF75" s="12">
+        <f t="shared" si="29"/>
+        <v>26</v>
       </c>
       <c r="AG75" s="12" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="AH75" s="12">
-        <f t="shared" si="29"/>
-        <v>28</v>
+      <c r="AH75" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="AI75" s="23" t="str">
         <f t="shared" si="29"/>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="AL75" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM75" s="1">
         <f t="shared" si="26"/>
@@ -11411,11 +11411,11 @@
       </c>
       <c r="AN75" s="12">
         <f t="shared" si="27"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AO75" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP75" s="1" t="str">
         <f t="shared" si="28"/>
@@ -11432,7 +11432,7 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="25"/>
-        <v>759</v>
+        <v>483</v>
       </c>
       <c r="F76" s="21"/>
       <c r="G76" s="22" t="str">
@@ -11443,9 +11443,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="I76" s="12" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+      <c r="I76" s="12">
+        <f t="shared" si="30"/>
+        <v>3</v>
       </c>
       <c r="J76" s="12" t="str">
         <f t="shared" si="30"/>
@@ -11467,9 +11467,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="O76" s="12">
-        <f t="shared" si="29"/>
-        <v>9</v>
+      <c r="O76" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="P76" s="12" t="str">
         <f t="shared" si="29"/>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="AL76" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM76" s="1">
         <f t="shared" si="26"/>
@@ -11561,11 +11561,11 @@
       </c>
       <c r="AN76" s="12">
         <f t="shared" si="27"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AO76" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP76" s="1" t="str">
         <f t="shared" si="28"/>
@@ -11582,7 +11582,7 @@
       </c>
       <c r="D77" s="1">
         <f t="shared" si="25"/>
-        <v>770</v>
+        <v>490</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="22" t="str">
@@ -11621,9 +11621,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="P77" s="12" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+      <c r="P77" s="12">
+        <f t="shared" si="29"/>
+        <v>10</v>
       </c>
       <c r="Q77" s="22" t="str">
         <f t="shared" si="29"/>
@@ -11661,9 +11661,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="Z77" s="12">
-        <f t="shared" si="29"/>
-        <v>20</v>
+      <c r="Z77" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="AA77" s="12" t="str">
         <f t="shared" si="29"/>
@@ -11703,7 +11703,7 @@
       </c>
       <c r="AL77" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM77" s="1">
         <f t="shared" si="26"/>
@@ -11711,11 +11711,11 @@
       </c>
       <c r="AN77" s="12">
         <f t="shared" si="27"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO77" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP77" s="1" t="str">
         <f t="shared" si="28"/>
@@ -11735,12 +11735,12 @@
       </c>
       <c r="D78" s="1">
         <f t="shared" si="25"/>
-        <v>781</v>
+        <v>497</v>
       </c>
       <c r="F78" s="21"/>
-      <c r="G78" s="22">
-        <f t="shared" si="30"/>
-        <v>1</v>
+      <c r="G78" s="22" t="str">
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="H78" s="12" t="str">
         <f t="shared" si="30"/>
@@ -11802,9 +11802,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="W78" s="22" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+      <c r="W78" s="22">
+        <f t="shared" si="29"/>
+        <v>17</v>
       </c>
       <c r="X78" s="12" t="str">
         <f t="shared" si="29"/>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="AL78" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM78" s="1">
         <f t="shared" si="26"/>
@@ -11864,11 +11864,11 @@
       </c>
       <c r="AN78" s="12">
         <f t="shared" si="27"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AO78" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP78" s="1" t="str">
         <f t="shared" si="28"/>
@@ -11885,7 +11885,7 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" si="25"/>
-        <v>792</v>
+        <v>504</v>
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="22" t="str">
@@ -11932,9 +11932,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="R79" s="12">
-        <f t="shared" si="29"/>
-        <v>12</v>
+      <c r="R79" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
       </c>
       <c r="S79" s="22" t="str">
         <f t="shared" si="29"/>
@@ -11980,9 +11980,9 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="AD79" s="12" t="str">
+      <c r="AD79" s="12">
         <f t="shared" ref="AD79:AI79" si="33">IF((MOD(($D79-AD$4),30)=0),AD$4,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="AE79" s="12" t="str">
         <f t="shared" si="33"/>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="AL79" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM79" s="1">
         <f t="shared" si="26"/>
@@ -12014,11 +12014,11 @@
       </c>
       <c r="AN79" s="12">
         <f t="shared" si="27"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AO79" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP79" s="1" t="str">
         <f t="shared" si="28"/>
@@ -12038,12 +12038,12 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" si="25"/>
-        <v>803</v>
+        <v>511</v>
       </c>
       <c r="F80" s="21"/>
-      <c r="G80" s="22" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+      <c r="G80" s="22">
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="H80" s="12" t="str">
         <f t="shared" si="30"/>
@@ -12129,9 +12129,9 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="AC80" s="22">
+      <c r="AC80" s="22" t="str">
         <f t="shared" si="34"/>
-        <v>23</v>
+        <v/>
       </c>
       <c r="AD80" s="12" t="str">
         <f t="shared" si="34"/>
@@ -12159,7 +12159,7 @@
       </c>
       <c r="AL80" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM80" s="1">
         <f t="shared" si="26"/>
@@ -12167,11 +12167,11 @@
       </c>
       <c r="AN80" s="12">
         <f t="shared" si="27"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AO80" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP80" s="1" t="str">
         <f t="shared" si="28"/>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="25"/>
-        <v>814</v>
+        <v>518</v>
       </c>
       <c r="F81" s="21"/>
       <c r="G81" s="22" t="str">
@@ -12203,9 +12203,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="J81" s="12">
-        <f t="shared" si="30"/>
-        <v>4</v>
+      <c r="J81" s="12" t="str">
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="K81" s="12" t="str">
         <f t="shared" si="30"/>
@@ -12219,9 +12219,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="N81" s="12" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+      <c r="N81" s="12">
+        <f t="shared" si="30"/>
+        <v>8</v>
       </c>
       <c r="O81" s="12" t="str">
         <f t="shared" si="30"/>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="AL81" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM81" s="1">
         <f t="shared" si="26"/>
@@ -12317,11 +12317,11 @@
       </c>
       <c r="AN81" s="12">
         <f t="shared" si="27"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AO81" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP81" s="1" t="str">
         <f t="shared" si="28"/>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="25"/>
-        <v>825</v>
+        <v>525</v>
       </c>
       <c r="F82" s="21"/>
       <c r="G82" s="22" t="str">
@@ -12459,7 +12459,7 @@
       </c>
       <c r="AL82" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM82" s="1">
         <f t="shared" si="26"/>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="AO82" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP82" s="1" t="str">
         <f t="shared" si="28"/>
@@ -12488,7 +12488,7 @@
       </c>
       <c r="D83" s="1">
         <f t="shared" si="25"/>
-        <v>836</v>
+        <v>532</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="22" t="str">
@@ -12575,9 +12575,9 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="AB83" s="12" t="str">
+      <c r="AB83" s="12">
         <f t="shared" si="34"/>
-        <v/>
+        <v>22</v>
       </c>
       <c r="AC83" s="22" t="str">
         <f t="shared" si="34"/>
@@ -12591,9 +12591,9 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="AF83" s="12">
+      <c r="AF83" s="12" t="str">
         <f t="shared" si="34"/>
-        <v>26</v>
+        <v/>
       </c>
       <c r="AG83" s="12" t="str">
         <f t="shared" si="34"/>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="AL83" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM83" s="1">
         <f t="shared" si="26"/>
@@ -12617,11 +12617,11 @@
       </c>
       <c r="AN83" s="12">
         <f t="shared" si="27"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AO83" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP83" s="1" t="str">
         <f t="shared" si="28"/>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" si="25"/>
-        <v>847</v>
+        <v>539</v>
       </c>
       <c r="F84" s="21"/>
       <c r="G84" s="22" t="str">
@@ -12665,9 +12665,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="M84" s="22">
-        <f t="shared" si="30"/>
-        <v>7</v>
+      <c r="M84" s="22" t="str">
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="N84" s="12" t="str">
         <f t="shared" si="30"/>
@@ -12753,13 +12753,13 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="AI84" s="23" t="str">
+      <c r="AI84" s="23">
         <f t="shared" si="34"/>
-        <v/>
+        <v>29</v>
       </c>
       <c r="AL84" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM84" s="1">
         <f t="shared" si="26"/>
@@ -12767,11 +12767,11 @@
       </c>
       <c r="AN84" s="12">
         <f t="shared" si="27"/>
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="AO84" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP84" s="1" t="str">
         <f t="shared" si="28"/>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="D85" s="1">
         <f t="shared" si="25"/>
-        <v>858</v>
+        <v>546</v>
       </c>
       <c r="F85" s="21"/>
       <c r="G85" s="22" t="str">
@@ -12811,9 +12811,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="L85" s="12" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+      <c r="L85" s="12">
+        <f t="shared" si="30"/>
+        <v>6</v>
       </c>
       <c r="M85" s="22" t="str">
         <f t="shared" si="30"/>
@@ -12859,9 +12859,9 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="X85" s="12">
+      <c r="X85" s="12" t="str">
         <f t="shared" si="34"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="Y85" s="22" t="str">
         <f t="shared" si="34"/>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="AL85" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM85" s="1">
         <f t="shared" si="26"/>
@@ -12917,11 +12917,11 @@
       </c>
       <c r="AN85" s="12">
         <f t="shared" si="27"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AO85" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP85" s="1" t="str">
         <f t="shared" si="28"/>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="D86" s="1">
         <f t="shared" si="25"/>
-        <v>869</v>
+        <v>553</v>
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="22" t="str">
@@ -12992,9 +12992,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="S86" s="22" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+      <c r="S86" s="22">
+        <f t="shared" si="30"/>
+        <v>13</v>
       </c>
       <c r="T86" s="12" t="str">
         <f t="shared" si="30"/>
@@ -13056,13 +13056,13 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="AI86" s="23">
+      <c r="AI86" s="23" t="str">
         <f t="shared" si="34"/>
-        <v>29</v>
+        <v/>
       </c>
       <c r="AL86" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM86" s="1">
         <f t="shared" si="26"/>
@@ -13070,11 +13070,11 @@
       </c>
       <c r="AN86" s="12">
         <f t="shared" si="27"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AO86" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP86" s="1" t="str">
         <f t="shared" si="28"/>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" si="25"/>
-        <v>880</v>
+        <v>560</v>
       </c>
       <c r="F87" s="21"/>
       <c r="G87" s="22" t="str">
@@ -13130,9 +13130,9 @@
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="P87" s="12">
-        <f t="shared" si="30"/>
-        <v>10</v>
+      <c r="P87" s="12" t="str">
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="Q87" s="22" t="str">
         <f t="shared" si="30"/>
@@ -13170,9 +13170,9 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="Z87" s="12" t="str">
+      <c r="Z87" s="12">
         <f t="shared" si="34"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="AA87" s="12" t="str">
         <f t="shared" si="34"/>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="AL87" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM87" s="1">
         <f t="shared" si="26"/>
@@ -13220,11 +13220,11 @@
       </c>
       <c r="AN87" s="12">
         <f t="shared" si="27"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO87" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP87" s="1" t="str">
         <f t="shared" si="28"/>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="D88" s="1">
         <f t="shared" si="25"/>
-        <v>891</v>
+        <v>567</v>
       </c>
       <c r="F88" s="21"/>
       <c r="G88" s="22" t="str">
@@ -13324,9 +13324,9 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="AA88" s="12">
+      <c r="AA88" s="12" t="str">
         <f t="shared" si="34"/>
-        <v>21</v>
+        <v/>
       </c>
       <c r="AB88" s="12" t="str">
         <f t="shared" si="34"/>
@@ -13348,9 +13348,9 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="AG88" s="12" t="str">
+      <c r="AG88" s="12">
         <f t="shared" si="34"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AH88" s="12" t="str">
         <f t="shared" si="34"/>
@@ -13362,7 +13362,7 @@
       </c>
       <c r="AL88" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM88" s="1">
         <f t="shared" si="26"/>
@@ -13370,11 +13370,11 @@
       </c>
       <c r="AN88" s="12">
         <f t="shared" si="27"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AO88" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP88" s="1" t="str">
         <f t="shared" si="28"/>
@@ -13391,24 +13391,24 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" si="25"/>
-        <v>902</v>
+        <v>574</v>
       </c>
       <c r="F89" s="21"/>
       <c r="G89" s="22" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="H89" s="12">
-        <f t="shared" si="30"/>
-        <v>2</v>
+      <c r="H89" s="12" t="str">
+        <f t="shared" si="30"/>
+        <v/>
       </c>
       <c r="I89" s="12" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="J89" s="12" t="str">
-        <f t="shared" si="30"/>
-        <v/>
+      <c r="J89" s="12">
+        <f t="shared" si="30"/>
+        <v>4</v>
       </c>
       <c r="K89" s="12" t="str">
         <f t="shared" si="30"/>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="AL89" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM89" s="1">
         <f t="shared" si="26"/>
@@ -13520,11 +13520,11 @@
       </c>
       <c r="AN89" s="12">
         <f t="shared" si="27"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AO89" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP89" s="1" t="str">
         <f t="shared" si="28"/>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="D90" s="1">
         <f t="shared" si="25"/>
-        <v>913</v>
+        <v>581</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="22" t="str">
@@ -13587,17 +13587,17 @@
         <f t="shared" ref="P90:AI96" si="35">IF((MOD(($D90-P$4),30)=0),P$4,"")</f>
         <v/>
       </c>
-      <c r="Q90" s="22" t="str">
+      <c r="Q90" s="22">
         <f t="shared" si="35"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="R90" s="12" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="S90" s="22">
+      <c r="S90" s="22" t="str">
         <f t="shared" si="35"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="T90" s="12" t="str">
         <f t="shared" si="35"/>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="AL90" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM90" s="1">
         <f t="shared" si="26"/>
@@ -13673,11 +13673,11 @@
       </c>
       <c r="AN90" s="12">
         <f t="shared" si="27"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO90" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP90" s="1" t="str">
         <f t="shared" si="28"/>
@@ -13694,7 +13694,7 @@
       </c>
       <c r="D91" s="1">
         <f t="shared" si="25"/>
-        <v>924</v>
+        <v>588</v>
       </c>
       <c r="F91" s="21"/>
       <c r="G91" s="22" t="str">
@@ -13765,9 +13765,9 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="X91" s="12" t="str">
+      <c r="X91" s="12">
         <f t="shared" si="35"/>
-        <v/>
+        <v>18</v>
       </c>
       <c r="Y91" s="22" t="str">
         <f t="shared" si="35"/>
@@ -13789,9 +13789,9 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AD91" s="12">
+      <c r="AD91" s="12" t="str">
         <f t="shared" si="35"/>
-        <v>24</v>
+        <v/>
       </c>
       <c r="AE91" s="12" t="str">
         <f t="shared" si="35"/>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="AL91" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM91" s="1">
         <f t="shared" si="26"/>
@@ -13823,11 +13823,11 @@
       </c>
       <c r="AN91" s="12">
         <f t="shared" si="27"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AO91" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP91" s="1" t="str">
         <f t="shared" si="28"/>
@@ -13844,7 +13844,7 @@
       </c>
       <c r="D92" s="1">
         <f t="shared" si="25"/>
-        <v>935</v>
+        <v>595</v>
       </c>
       <c r="F92" s="21"/>
       <c r="G92" s="22" t="str">
@@ -13863,9 +13863,9 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K92" s="12">
+      <c r="K92" s="12" t="str">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="L92" s="12" t="str">
         <f t="shared" si="36"/>
@@ -13943,9 +13943,9 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AE92" s="12" t="str">
+      <c r="AE92" s="12">
         <f t="shared" si="35"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="AF92" s="12" t="str">
         <f t="shared" si="35"/>
@@ -13965,7 +13965,7 @@
       </c>
       <c r="AL92" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM92" s="1">
         <f t="shared" si="26"/>
@@ -13973,11 +13973,11 @@
       </c>
       <c r="AN92" s="12">
         <f t="shared" si="27"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AO92" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP92" s="1" t="str">
         <f t="shared" si="28"/>
@@ -13994,16 +13994,16 @@
       </c>
       <c r="D93" s="1">
         <f t="shared" si="25"/>
-        <v>946</v>
+        <v>602</v>
       </c>
       <c r="F93" s="21"/>
       <c r="G93" s="22" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H93" s="12" t="str">
+      <c r="H93" s="12">
         <f t="shared" si="36"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I93" s="12" t="str">
         <f t="shared" si="36"/>
@@ -14057,9 +14057,9 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="V93" s="12">
+      <c r="V93" s="12" t="str">
         <f t="shared" si="36"/>
-        <v>16</v>
+        <v/>
       </c>
       <c r="W93" s="22" t="str">
         <f t="shared" si="35"/>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="AL93" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM93" s="1">
         <f t="shared" si="26"/>
@@ -14123,11 +14123,11 @@
       </c>
       <c r="AN93" s="12">
         <f t="shared" si="27"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AO93" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP93" s="1" t="str">
         <f t="shared" si="28"/>
@@ -14144,7 +14144,7 @@
       </c>
       <c r="D94" s="1">
         <f t="shared" si="25"/>
-        <v>957</v>
+        <v>609</v>
       </c>
       <c r="F94" s="21"/>
       <c r="G94" s="22" t="str">
@@ -14179,9 +14179,9 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="O94" s="12" t="str">
+      <c r="O94" s="12">
         <f t="shared" si="36"/>
-        <v/>
+        <v>9</v>
       </c>
       <c r="P94" s="12" t="str">
         <f t="shared" si="36"/>
@@ -14251,9 +14251,9 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AG94" s="12">
+      <c r="AG94" s="12" t="str">
         <f t="shared" si="35"/>
-        <v>27</v>
+        <v/>
       </c>
       <c r="AH94" s="12" t="str">
         <f t="shared" si="35"/>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="AL94" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM94" s="1">
         <f t="shared" si="26"/>
@@ -14273,11 +14273,11 @@
       </c>
       <c r="AN94" s="12">
         <f t="shared" si="27"/>
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AO94" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP94" s="1" t="str">
         <f t="shared" si="28"/>
@@ -14294,7 +14294,7 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" si="25"/>
-        <v>968</v>
+        <v>616</v>
       </c>
       <c r="F95" s="21"/>
       <c r="G95" s="22" t="str">
@@ -14325,9 +14325,9 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N95" s="12">
+      <c r="N95" s="12" t="str">
         <f t="shared" si="36"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="O95" s="12" t="str">
         <f t="shared" si="36"/>
@@ -14357,9 +14357,9 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="V95" s="12" t="str">
+      <c r="V95" s="12">
         <f t="shared" si="36"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="W95" s="22" t="str">
         <f t="shared" si="35"/>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="AL95" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM95" s="1">
         <f t="shared" si="26"/>
@@ -14423,11 +14423,11 @@
       </c>
       <c r="AN95" s="12">
         <f t="shared" si="27"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AO95" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP95" s="1" t="str">
         <f t="shared" si="28"/>
@@ -14447,7 +14447,7 @@
       </c>
       <c r="D96" s="1">
         <f t="shared" si="25"/>
-        <v>979</v>
+        <v>623</v>
       </c>
       <c r="F96" s="26"/>
       <c r="G96" s="27" t="str">
@@ -14522,9 +14522,9 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="Y96" s="27">
+      <c r="Y96" s="27" t="str">
         <f t="shared" si="35"/>
-        <v>19</v>
+        <v/>
       </c>
       <c r="Z96" s="28" t="str">
         <f t="shared" si="35"/>
@@ -14538,9 +14538,9 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="AC96" s="27" t="str">
+      <c r="AC96" s="27">
         <f t="shared" si="35"/>
-        <v/>
+        <v>23</v>
       </c>
       <c r="AD96" s="28" t="str">
         <f t="shared" si="35"/>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="AL96" s="11">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AM96" s="1">
         <f t="shared" si="26"/>
@@ -14576,11 +14576,11 @@
       </c>
       <c r="AN96" s="12">
         <f>60+SUM(F96:AI96)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AO96" s="1">
         <f t="shared" si="32"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AP96" s="1" t="str">
         <f t="shared" si="28"/>
